--- a/Dataset/Folds/Fold_2/Excel/77.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="419">
   <si>
     <t>Doi</t>
   </si>
@@ -1370,6 +1370,141 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,                  Christian%Kronborg%null%1,                  Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                             Tengku%Aizan Hamid%NULL%1,                             Mohammad Nazrul%Hakim%NULL%1,                             Reza%Chaman%NULL%1,                             Seyed Abbas%Mousavi%NULL%1,                             Lim%Poh Hin%NULL%1,                             Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                             Shunsuke%Ohki%NULL%1,                             Hirokazu%Takayama%NULL%1,                             Yuji%Kobayashi%NULL%1,                             Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                             Shin-Chang%Su%maxmax0220@hotmail.com%1,                             Chun-Wei%Chen%chunwei.peter@gmail.com%1,                             Yaw-Wen%Kang%castle.kang@gmail.com%1,                             Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                             Li-Lin%Hsu%llh@firdi.org.tw%1,                             Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                             Likwang%Chen%likwang@nhri.edu.tw%1,                             Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                             Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                             Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                             Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                             Yasuyoshi%Asakawa%NULL%1,                             Hideaki%Ishibashi%NULL%1,                             Hiroaki%Fujita%NULL%1,                             Tomoyuki%Arai%NULL%1,                             Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                             Polly M.%McGuigan%NULL%2,                             Polly M.%McGuigan%NULL%0,                             Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                             Evdokia%Billis%NULL%1,                             Elias%Tsepis%NULL%1,                             Zacharias%Dimitriadis%NULL%1,                             Charalampos%Matzaroglou%NULL%1,                             Minos%Tyllianakis%NULL%1,                             Elias%Panagiotopoulos%NULL%1,                             John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                              Tengku%Aizan Hamid%NULL%1,                              Mohammad Nazrul%Hakim%NULL%1,                              Reza%Chaman%NULL%1,                              Seyed Abbas%Mousavi%NULL%1,                              Lim%Poh Hin%NULL%1,                              Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                              Shunsuke%Ohki%NULL%1,                              Hirokazu%Takayama%NULL%1,                              Yuji%Kobayashi%NULL%1,                              Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                              Shin-Chang%Su%maxmax0220@hotmail.com%1,                              Chun-Wei%Chen%chunwei.peter@gmail.com%1,                              Yaw-Wen%Kang%castle.kang@gmail.com%1,                              Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                              Li-Lin%Hsu%llh@firdi.org.tw%1,                              Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                              Likwang%Chen%likwang@nhri.edu.tw%1,                              Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                              Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                              Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                              Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                              Yasuyoshi%Asakawa%NULL%1,                              Hideaki%Ishibashi%NULL%1,                              Hiroaki%Fujita%NULL%1,                              Tomoyuki%Arai%NULL%1,                              Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                              Polly M.%McGuigan%NULL%2,                              Polly M.%McGuigan%NULL%0,                              Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                              Evdokia%Billis%NULL%1,                              Elias%Tsepis%NULL%1,                              Zacharias%Dimitriadis%NULL%1,                              Charalampos%Matzaroglou%NULL%1,                              Minos%Tyllianakis%NULL%1,                              Elias%Panagiotopoulos%NULL%1,                              John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%0, Tengku%Aizan Hamid%NULL%1, Mohammad Nazrul%Hakim%NULL%1, Reza%Chaman%NULL%1, Seyed Abbas%Mousavi%NULL%1, Lim%Poh Hin%NULL%1, Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>Kowsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calf-raise training with the intent to move rapidly, without special equipment or venue, induces an improvement of explosive plantar flexion force, which is attributable to neuromuscular rather than musculotendinous adaptations.
+ Although the training effect on balance performance was trivial, we found a sign of improvement (i.
+e.
+, neuromuscular adaptations during standing).
+ In conclusion, functional neuromuscular capacity can be enhanced by home-based calf-raise exercise in elderly men, which may protect against mobility loss with aging.
+</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%0, Shunsuke%Ohki%NULL%1, Hirokazu%Takayama%NULL%1, Yuji%Kobayashi%NULL%1, Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Physiological Society</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%0, Shin-Chang%Su%maxmax0220@hotmail.com%1, Chun-Wei%Chen%chunwei.peter@gmail.com%1, Yaw-Wen%Kang%castle.kang@gmail.com%1, Ming-Hsia%Hu%mhh@ntu.edu.tw%1, Li-Lin%Hsu%llh@firdi.org.tw%1, Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1, Likwang%Chen%likwang@nhri.edu.tw%1, Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1, Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1, Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1, Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Purpose] To evaluate the effect of a home exercise program on physical function in
+community dwelling elderly with pre-sarcopenia or sarcopenia.
+ [Subjects and Methods]
+Fifty-two community-dwelling individuals, over 60 years and meeting the diagnostic
+criteria for pre-sarcopenia or sarcopenia, were randomly assigned to intervention group
+(n=34) and control group (n=18).
+ The intervention group completed 6-months home exercise
+programs, combining walking with lower limb resistance exercises.
+ Body mass index,
+skeletal mass index, body fat percentage, handgrip strength, single-leg standing, walking
+speed (comfortable and maximal), and knee extension strength were evaluated at baseline
+and post-intervention.
+ Activity was assessed using the 25-question Geriatric Locomotive
+Functional Scale (GLFS-25) and quality of life using the Euro QOL questionnaire.
+ [Results]
+Pre- and post-training assessments were completed by 76.5% and 77.8% of participants in
+the intervention and control groups, respectively.
+ The intervention improved single-leg
+standing (60.5 s to 77.2 s) and knee extension strength (1.38 Nm/kg to 1.69 Nm/kg).
+ In the
+control group, maximum walking speed (2.02 m/s to 1.86 m/s) and GLFS-25 score (2.9 to 5.1)
+worsened.
+ Change of pre-sarcopenia/sarcopenia status was comparable for the intervention
+(15.4%) and control (14.3%) groups.
+ [Conclusion] A 6-month home exercise program improved
+physical function in community-dwelling individuals with pre-sarcopenia or sarcopenia.
+</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%0, Yasuyoshi%Asakawa%NULL%1, Hideaki%Ishibashi%NULL%1, Hiroaki%Fujita%NULL%1, Tomoyuki%Arai%NULL%1, Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Society of Physical Therapy Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss of muscle mass and strength are seemingly accepted as part of the ageing process, despite ultimately leading to the loss of independence.
+ Resistance exercise is considered to be primary defence against loss of muscle function in older age, but it typically requires access to exercise equipment often in a gym environment.
+ This pilot study aimed at examining the effect of a 28-day, unsupervised home-based exercise intervention on indices of leg strength and muscle size in healthy older adults.
+ Twenty participants were randomly assigned to either maintain their habitual physical activity levels (Control; n=10; age, 74 (5) years; body mass, 26.3 (3.5) kg/m2) or undertake “exercise snacks” twice daily (ES; n=10; age, 70 (4) years; body mass, 25.0 (3.4) kg/m2).
+ Both groups consumed 150 g of yogurt at their breakfast meal for the duration of the intervention.
+ Sixty-second sit-to-stand score improved by 31% in ES, with no change in Control (p &amp;lt; 0.01).
+ Large effect sizes were observed for the difference in change scores between the groups for interpolated maximum leg pressing power (6% increase in ES) and thigh muscle cross-sectional area (2% increase in ES).
+ The present pilot data suggest that exercise snacking might be a promising strategy to improve leg muscle function and size in older adults and that further investigation into zero-cost exercise strategies that allow high frequency of training is warranted.
+</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%0, Polly M.%McGuigan%NULL%2, Polly M.%McGuigan%NULL%0, Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>Hindawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical exercise is effective for sarcopenic elderly but evidence for the most effective mode of exercise is conflicting.
+ The objective of this study was to investigate the effects of a three-month group-based versus home-based exercise program on muscular, functional/physical performance and quality of life (QoL) across elderly with sarcopenia.
+ 54 elderly (47 women, 7 men aged 72.87 ± 7 years) were randomly assigned to one of three interventions: supervised group (n = 18), individualized home-based exercise (n = 18) and control group (n = 18).
+ Body composition was determined by bioelectrical impedance analysis, calf measurement with inelastic tape and strength assessments (grip and knee muscle strength) via hand-held and isokinetic dynamometers.
+ Functional assessments included four-meter (4 m), Τimed-Up and Go (TUG) and chair stand (CS) tests.
+ QoL was assessed with Greek Sarcopenia Quality of Life (SarQol_GR) questionnaire.
+ Outcomes were assessed at baseline, immediately post-intervention (week 12), and 3 months post-intervention (week 24).
+ Significant group x time interactions (p &amp;lt; 0.001) were observed in QoL, calf circumference, TUG, CS, and 4 m tests, grip and knee muscle strength.
+ Group-based compared to home-based exercise yielded significant improvements (p &amp;lt; 0.05) in muscle mass index, CS and 4 m tests, calf circumference, muscle strength at 12 weeks.
+ Most improvements at 24 weeks were reported with grouped exercise.
+ No changes were found across the control group.
+ Results suggest group-based exercise was more effective than home-based for improving functional performance.
+</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%0, Evdokia%Billis%NULL%1, Elias%Tsepis%NULL%1, Zacharias%Dimitriadis%NULL%1, Charalampos%Matzaroglou%NULL%1, Minos%Tyllianakis%NULL%1, Elias%Panagiotopoulos%NULL%1, John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1857,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1734,10 +1869,10 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
@@ -1748,25 +1883,25 @@
         <v>42705.0</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
         <v>102</v>
@@ -1783,10 +1918,10 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1798,10 +1933,10 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5">
@@ -1815,10 +1950,10 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1830,10 +1965,10 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6">
@@ -1844,28 +1979,28 @@
         <v>42309.0</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>323</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1876,28 +2011,28 @@
         <v>41640.0</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>326</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1940,28 +2075,28 @@
         <v>42461.0</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>328</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1972,25 +2107,25 @@
         <v>39722.0</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
         <v>102</v>
@@ -2007,10 +2142,10 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -2022,10 +2157,10 @@
         <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
@@ -2036,28 +2171,28 @@
         <v>38018.0</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>333</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -2103,10 +2238,10 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -2118,10 +2253,10 @@
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
@@ -2135,10 +2270,10 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="E15" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -2150,10 +2285,10 @@
         <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16">
@@ -2164,25 +2299,25 @@
         <v>39722.0</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>390</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
         <v>102</v>
